--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Crh-Crhr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Crh-Crhr2.xlsx
@@ -528,16 +528,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2386626666666667</v>
+        <v>0.1752863333333333</v>
       </c>
       <c r="H2">
-        <v>0.715988</v>
+        <v>0.525859</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.357893</v>
+        <v>0.345785</v>
       </c>
       <c r="N2">
-        <v>1.073679</v>
+        <v>1.037355</v>
       </c>
       <c r="O2">
-        <v>0.2341304653589384</v>
+        <v>0.1901295499320662</v>
       </c>
       <c r="P2">
-        <v>0.2341304653589384</v>
+        <v>0.1901295499320662</v>
       </c>
       <c r="Q2">
-        <v>0.08541569776133334</v>
+        <v>0.06061138477166667</v>
       </c>
       <c r="R2">
-        <v>0.768741279852</v>
+        <v>0.5455024629449999</v>
       </c>
       <c r="S2">
-        <v>0.2341304653589384</v>
+        <v>0.1901295499320662</v>
       </c>
       <c r="T2">
-        <v>0.2341304653589384</v>
+        <v>0.1901295499320662</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2386626666666667</v>
+        <v>0.1752863333333333</v>
       </c>
       <c r="H3">
-        <v>0.715988</v>
+        <v>0.525859</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.229851</v>
       </c>
       <c r="O3">
-        <v>0.05012217021401866</v>
+        <v>0.04212778381695306</v>
       </c>
       <c r="P3">
-        <v>0.05012217021401866</v>
+        <v>0.04212778381695306</v>
       </c>
       <c r="Q3">
-        <v>0.018285617532</v>
+        <v>0.013429913001</v>
       </c>
       <c r="R3">
-        <v>0.164570557788</v>
+        <v>0.120869217009</v>
       </c>
       <c r="S3">
-        <v>0.05012217021401866</v>
+        <v>0.04212778381695306</v>
       </c>
       <c r="T3">
-        <v>0.05012217021401866</v>
+        <v>0.04212778381695306</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2386626666666667</v>
+        <v>0.1752863333333333</v>
       </c>
       <c r="H4">
-        <v>0.715988</v>
+        <v>0.525859</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.094095</v>
+        <v>1.396279</v>
       </c>
       <c r="N4">
-        <v>3.282285</v>
+        <v>4.188836999999999</v>
       </c>
       <c r="O4">
-        <v>0.715747364427043</v>
+        <v>0.7677426662509808</v>
       </c>
       <c r="P4">
-        <v>0.715747364427043</v>
+        <v>0.7677426662509808</v>
       </c>
       <c r="Q4">
-        <v>0.2611196302866667</v>
+        <v>0.2447486262203333</v>
       </c>
       <c r="R4">
-        <v>2.35007667258</v>
+        <v>2.202737635983</v>
       </c>
       <c r="S4">
-        <v>0.715747364427043</v>
+        <v>0.7677426662509808</v>
       </c>
       <c r="T4">
-        <v>0.715747364427043</v>
+        <v>0.7677426662509808</v>
       </c>
     </row>
   </sheetData>
